--- a/AP/eTrade Mapping for Industry Type and Industry Class - 04.06.2022 (2).xlsx
+++ b/AP/eTrade Mapping for Industry Type and Industry Class - 04.06.2022 (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bfl.local\dfsroot\US_Users\duque\My Documents\00-MyDocuments\AP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CCC3CC-8A32-4AE3-9E10-EA18680B5AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0979D5F5-12DA-4D82-80EC-D76399BC5F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="945" windowWidth="22410" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="75" windowWidth="17250" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quote Industries Mapping" sheetId="1" r:id="rId1"/>
@@ -2067,21 +2067,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F192" sqref="F192"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A277" sqref="A277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="43" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.7109375" style="18" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24" style="18" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" style="18" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="18" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="19" customWidth="1"/>
     <col min="9" max="9" width="64.42578125" style="18" bestFit="1" customWidth="1"/>
@@ -2126,7 +2126,7 @@
       <c r="O1" s="21"/>
       <c r="P1" s="21"/>
     </row>
-    <row r="2" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>273</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="I2" s="35"/>
       <c r="J2" s="18"/>
     </row>
-    <row r="3" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>247</v>
       </c>
@@ -2170,7 +2170,7 @@
       <c r="I3" s="35"/>
       <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>368</v>
       </c>
@@ -2192,7 +2192,7 @@
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>15</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>96</v>
       </c>
@@ -2230,7 +2230,7 @@
       <c r="I6" s="36"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="7" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>251</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="I7" s="35"/>
       <c r="J7" s="18"/>
     </row>
-    <row r="8" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>269</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>371</v>
       </c>
@@ -2298,7 +2298,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="18"/>
     </row>
-    <row r="10" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>231</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>248</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>27</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
     </row>
-    <row r="13" spans="1:16" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>250</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="18"/>
     </row>
-    <row r="14" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>31</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>270</v>
       </c>
@@ -2437,7 +2437,7 @@
       <c r="I15" s="35"/>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>275</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="I16" s="35"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>271</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="I17" s="35"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>272</v>
       </c>
@@ -2508,7 +2508,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="35"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>36</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>88</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>82</v>
       </c>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>287</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="I22" s="35"/>
     </row>
-    <row r="23" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="I23" s="36"/>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>286</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>44</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="I25" s="36"/>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>249</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="I26" s="35"/>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>268</v>
       </c>
@@ -2726,7 +2726,7 @@
       <c r="I27" s="35"/>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>274</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>61</v>
       </c>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="I29" s="36"/>
     </row>
-    <row r="30" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>352</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="I30" s="36"/>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>328</v>
       </c>
@@ -2816,7 +2816,7 @@
       <c r="I31" s="35"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>330</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="H32" s="2"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>63</v>
       </c>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="I33" s="36"/>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>66</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>68</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="O35" s="36"/>
       <c r="P35" s="36"/>
     </row>
-    <row r="36" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>78</v>
       </c>
@@ -2935,7 +2935,7 @@
       <c r="I36" s="36"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>327</v>
       </c>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>79</v>
       </c>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="I38" s="36"/>
     </row>
-    <row r="39" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>97</v>
       </c>
@@ -3011,7 +3011,7 @@
       <c r="I39" s="36"/>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>332</v>
       </c>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>70</v>
       </c>
@@ -3062,7 +3062,7 @@
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>331</v>
       </c>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>28</v>
       </c>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="I43" s="36"/>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
         <v>57</v>
       </c>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="I44" s="36"/>
     </row>
-    <row r="45" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>80</v>
       </c>
@@ -3161,7 +3161,7 @@
       <c r="I45" s="36"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>333</v>
       </c>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="I46" s="35"/>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>81</v>
       </c>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>93</v>
       </c>
@@ -3232,7 +3232,7 @@
       <c r="H48" s="37"/>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>94</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="H49" s="37"/>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>160</v>
       </c>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>91</v>
       </c>
@@ -3299,7 +3299,7 @@
       <c r="H51" s="37"/>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>353</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>354</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>85</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
         <v>95</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
         <v>64</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>357</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
         <v>71</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>101</v>
       </c>
@@ -3458,7 +3458,7 @@
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
         <v>394</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="35"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>116</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>56</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>74</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>54</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="H64" s="37"/>
       <c r="I64" s="36"/>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
         <v>161</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>75</v>
       </c>
@@ -3600,7 +3600,7 @@
       </c>
       <c r="I66" s="36"/>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="24" t="s">
         <v>119</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="H67" s="37"/>
       <c r="I67" s="36"/>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>67</v>
       </c>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="I68" s="36"/>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>103</v>
       </c>
@@ -3665,7 +3665,7 @@
       <c r="H69" s="37"/>
       <c r="I69" s="36"/>
     </row>
-    <row r="70" spans="1:16" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>102</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="O70" s="27"/>
       <c r="P70" s="27"/>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
         <v>374</v>
       </c>
@@ -3714,7 +3714,7 @@
       <c r="H71" s="2"/>
       <c r="I71" s="35"/>
     </row>
-    <row r="72" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
         <v>100</v>
       </c>
@@ -3741,7 +3741,7 @@
       <c r="O72" s="36"/>
       <c r="P72" s="36"/>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
         <v>104</v>
       </c>
@@ -3762,7 +3762,7 @@
       <c r="H73" s="37"/>
       <c r="I73" s="36"/>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
         <v>159</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>77</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="H75" s="37"/>
       <c r="I75" s="36"/>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>92</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="H76" s="37"/>
       <c r="I76" s="36"/>
     </row>
-    <row r="77" spans="1:16" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
         <v>359</v>
       </c>
@@ -3853,7 +3853,7 @@
       <c r="O77" s="18"/>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>89</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="H78" s="37"/>
       <c r="I78" s="36"/>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>99</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="38" t="s">
         <v>98</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="O80" s="36"/>
       <c r="P80" s="36"/>
     </row>
-    <row r="81" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="38" t="s">
         <v>108</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="I81" s="36"/>
       <c r="J81" s="18"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="38" t="s">
         <v>329</v>
       </c>
@@ -3963,7 +3963,7 @@
       <c r="H82" s="2"/>
       <c r="I82" s="35"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="24" t="s">
         <v>362</v>
       </c>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="I83" s="36"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="38" t="s">
         <v>105</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
         <v>90</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="H85" s="37"/>
       <c r="I85" s="36"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>51</v>
       </c>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="I86" s="36"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>69</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>3</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="I88" s="18"/>
       <c r="J88" s="18"/>
     </row>
-    <row r="89" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="38" t="s">
         <v>294</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="I89" s="35"/>
       <c r="J89" s="18"/>
     </row>
-    <row r="90" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
         <v>295</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="I90" s="35"/>
       <c r="J90" s="18"/>
     </row>
-    <row r="91" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="38" t="s">
         <v>296</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="I91" s="35"/>
       <c r="J91" s="18"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="38" t="s">
         <v>373</v>
       </c>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="I92" s="35"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
         <v>32</v>
       </c>
@@ -4207,7 +4207,7 @@
       <c r="H93" s="37"/>
       <c r="I93" s="36"/>
     </row>
-    <row r="94" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="38" t="s">
         <v>33</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="I94" s="18"/>
       <c r="J94" s="18"/>
     </row>
-    <row r="95" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="38" t="s">
         <v>317</v>
       </c>
@@ -4255,7 +4255,7 @@
       <c r="I95" s="35"/>
       <c r="J95" s="18"/>
     </row>
-    <row r="96" spans="1:10" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
         <v>311</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="I96" s="35"/>
       <c r="J96" s="18"/>
     </row>
-    <row r="97" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="38" t="s">
         <v>282</v>
       </c>
@@ -4303,7 +4303,7 @@
       <c r="I97" s="35"/>
       <c r="J97" s="35"/>
     </row>
-    <row r="98" spans="1:16" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
         <v>369</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="I98" s="35"/>
       <c r="J98" s="18"/>
     </row>
-    <row r="99" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
         <v>246</v>
       </c>
@@ -4354,7 +4354,7 @@
       <c r="O99" s="36"/>
       <c r="P99" s="36"/>
     </row>
-    <row r="100" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
         <v>18</v>
       </c>
@@ -4378,7 +4378,7 @@
       <c r="I100" s="36"/>
       <c r="J100" s="36"/>
     </row>
-    <row r="101" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
         <v>226</v>
       </c>
@@ -4400,7 +4400,7 @@
       <c r="I101" s="35"/>
       <c r="J101" s="36"/>
     </row>
-    <row r="102" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
         <v>167</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="I102" s="35"/>
       <c r="J102" s="36"/>
     </row>
-    <row r="103" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
         <v>170</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="I103" s="35"/>
       <c r="J103" s="36"/>
     </row>
-    <row r="104" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="38" t="s">
         <v>315</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="I104" s="35"/>
       <c r="J104" s="36"/>
     </row>
-    <row r="105" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="38" t="s">
         <v>264</v>
       </c>
@@ -4496,7 +4496,7 @@
       <c r="I105" s="35"/>
       <c r="J105" s="36"/>
     </row>
-    <row r="106" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
         <v>338</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="I106" s="35"/>
       <c r="J106" s="36"/>
     </row>
-    <row r="107" spans="1:16" s="39" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
         <v>225</v>
       </c>
@@ -4544,7 +4544,7 @@
       <c r="I107" s="35"/>
       <c r="J107" s="36"/>
     </row>
-    <row r="108" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
         <v>314</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="O108" s="36"/>
       <c r="P108" s="36"/>
     </row>
-    <row r="109" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
         <v>20</v>
       </c>
@@ -4594,7 +4594,7 @@
       <c r="H109" s="37"/>
       <c r="I109" s="36"/>
     </row>
-    <row r="110" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="38" t="s">
         <v>370</v>
       </c>
@@ -4616,7 +4616,7 @@
       </c>
       <c r="H110" s="2"/>
     </row>
-    <row r="111" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="38" t="s">
         <v>266</v>
       </c>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="H111" s="2"/>
     </row>
-    <row r="112" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="38" t="s">
         <v>301</v>
       </c>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="H112" s="2"/>
     </row>
-    <row r="113" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="38" t="s">
         <v>166</v>
       </c>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="H113" s="2"/>
     </row>
-    <row r="114" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="38" t="s">
         <v>297</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="H114" s="2"/>
     </row>
-    <row r="115" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="38" t="s">
         <v>257</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="116" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="24" t="s">
         <v>13</v>
       </c>
@@ -4749,7 +4749,7 @@
       <c r="H116" s="37"/>
       <c r="I116" s="36"/>
     </row>
-    <row r="117" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="38" t="s">
         <v>245</v>
       </c>
@@ -4773,7 +4773,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="38" t="s">
         <v>316</v>
       </c>
@@ -4795,7 +4795,7 @@
       </c>
       <c r="H118" s="2"/>
     </row>
-    <row r="119" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="38" t="s">
         <v>169</v>
       </c>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="H119" s="2"/>
     </row>
-    <row r="120" spans="1:16" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="38" t="s">
         <v>300</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="O120" s="35"/>
       <c r="P120" s="35"/>
     </row>
-    <row r="121" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="38" t="s">
         <v>298</v>
       </c>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="H121" s="2"/>
     </row>
-    <row r="122" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="38" t="s">
         <v>228</v>
       </c>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H122" s="2"/>
     </row>
-    <row r="123" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="38" t="s">
         <v>284</v>
       </c>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="H123" s="2"/>
     </row>
-    <row r="124" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="38" t="s">
         <v>302</v>
       </c>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="H124" s="2"/>
     </row>
-    <row r="125" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="38" t="s">
         <v>34</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="H125" s="37"/>
       <c r="I125" s="36"/>
     </row>
-    <row r="126" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="38" t="s">
         <v>339</v>
       </c>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="H126" s="2"/>
     </row>
-    <row r="127" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="38" t="s">
         <v>290</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="38" t="s">
         <v>39</v>
       </c>
@@ -5022,7 +5022,7 @@
       <c r="H128" s="37"/>
       <c r="I128" s="36"/>
     </row>
-    <row r="129" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="38" t="s">
         <v>229</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="H129" s="2"/>
     </row>
-    <row r="130" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="38" t="s">
         <v>41</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="38" t="s">
         <v>337</v>
       </c>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="H131" s="2"/>
     </row>
-    <row r="132" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="38" t="s">
         <v>45</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="38" t="s">
         <v>227</v>
       </c>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="H133" s="2"/>
     </row>
-    <row r="134" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="38" t="s">
         <v>265</v>
       </c>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="H134" s="2"/>
     </row>
-    <row r="135" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="38" t="s">
         <v>267</v>
       </c>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="H135" s="2"/>
     </row>
-    <row r="136" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="38" t="s">
         <v>168</v>
       </c>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="H136" s="2"/>
     </row>
-    <row r="137" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="38" t="s">
         <v>53</v>
       </c>
@@ -5220,7 +5220,7 @@
       </c>
       <c r="I137" s="36"/>
     </row>
-    <row r="138" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="38" t="s">
         <v>1</v>
       </c>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="I138" s="36"/>
     </row>
-    <row r="139" spans="1:10" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="38" t="s">
         <v>304</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="I139" s="35"/>
       <c r="J139" s="35"/>
     </row>
-    <row r="140" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="38" t="s">
         <v>303</v>
       </c>
@@ -5284,7 +5284,7 @@
       </c>
       <c r="H140" s="2"/>
     </row>
-    <row r="141" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="24" t="s">
         <v>376</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="38" t="s">
         <v>5</v>
       </c>
@@ -5328,7 +5328,7 @@
       </c>
       <c r="I142" s="36"/>
     </row>
-    <row r="143" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="38" t="s">
         <v>325</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
         <v>385</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="H144" s="37"/>
       <c r="I144" s="36"/>
     </row>
-    <row r="145" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="38" t="s">
         <v>318</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="38" t="s">
         <v>84</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="H146" s="37"/>
       <c r="I146" s="36"/>
     </row>
-    <row r="147" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="38" t="s">
         <v>86</v>
       </c>
@@ -5447,7 +5447,7 @@
       </c>
       <c r="I147" s="36"/>
     </row>
-    <row r="148" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="38" t="s">
         <v>320</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="38" t="s">
         <v>322</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="38" t="s">
         <v>324</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="38" t="s">
         <v>299</v>
       </c>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="H151" s="2"/>
     </row>
-    <row r="152" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="38" t="s">
         <v>321</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="38" t="s">
         <v>305</v>
       </c>
@@ -5591,7 +5591,7 @@
       </c>
       <c r="H153" s="2"/>
     </row>
-    <row r="154" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="38" t="s">
         <v>361</v>
       </c>
@@ -5610,7 +5610,7 @@
       <c r="H154" s="37"/>
       <c r="I154" s="36"/>
     </row>
-    <row r="155" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="38" t="s">
         <v>47</v>
       </c>
@@ -5631,7 +5631,7 @@
       <c r="H155" s="37"/>
       <c r="I155" s="36"/>
     </row>
-    <row r="156" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="38" t="s">
         <v>48</v>
       </c>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="I156" s="36"/>
     </row>
-    <row r="157" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="38" t="s">
         <v>49</v>
       </c>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="I157" s="36"/>
     </row>
-    <row r="158" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="38" t="s">
         <v>319</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="38" t="s">
         <v>323</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="38" t="s">
         <v>326</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="38" t="s">
         <v>405</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="162" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="38" t="s">
         <v>37</v>
       </c>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="I162" s="36"/>
     </row>
-    <row r="163" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="38" t="s">
         <v>377</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="38" t="s">
         <v>12</v>
       </c>
@@ -5843,7 +5843,7 @@
       <c r="H164" s="37"/>
       <c r="I164" s="21"/>
     </row>
-    <row r="165" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="38" t="s">
         <v>244</v>
       </c>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="H165" s="2"/>
     </row>
-    <row r="166" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="38" t="s">
         <v>312</v>
       </c>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="H166" s="2"/>
     </row>
-    <row r="167" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="38" t="s">
         <v>242</v>
       </c>
@@ -5900,7 +5900,7 @@
       </c>
       <c r="H167" s="2"/>
     </row>
-    <row r="168" spans="1:10" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="38" t="s">
         <v>283</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="I168" s="35"/>
       <c r="J168" s="35"/>
     </row>
-    <row r="169" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="38" t="s">
         <v>240</v>
       </c>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="H169" s="2"/>
     </row>
-    <row r="170" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="38" t="s">
         <v>16</v>
       </c>
@@ -5960,7 +5960,7 @@
       <c r="H170" s="37"/>
       <c r="I170" s="36"/>
     </row>
-    <row r="171" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="38" t="s">
         <v>313</v>
       </c>
@@ -5979,7 +5979,7 @@
       </c>
       <c r="H171" s="2"/>
     </row>
-    <row r="172" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="38" t="s">
         <v>375</v>
       </c>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="H172" s="2"/>
     </row>
-    <row r="173" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="24" t="s">
         <v>19</v>
       </c>
@@ -6019,7 +6019,7 @@
       <c r="H173" s="37"/>
       <c r="I173" s="36"/>
     </row>
-    <row r="174" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="38" t="s">
         <v>308</v>
       </c>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="H174" s="2"/>
     </row>
-    <row r="175" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="24" t="s">
         <v>355</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="38" t="s">
         <v>285</v>
       </c>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="H176" s="2"/>
     </row>
-    <row r="177" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="24" t="s">
         <v>356</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="38" t="s">
         <v>21</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="H178" s="37"/>
       <c r="I178" s="36"/>
     </row>
-    <row r="179" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="38" t="s">
         <v>278</v>
       </c>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="H179" s="2"/>
     </row>
-    <row r="180" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="38" t="s">
         <v>22</v>
       </c>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="I180" s="36"/>
     </row>
-    <row r="181" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="38" t="s">
         <v>309</v>
       </c>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="H181" s="2"/>
     </row>
-    <row r="182" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="24" t="s">
         <v>23</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="H182" s="37"/>
       <c r="I182" s="36"/>
     </row>
-    <row r="183" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="38" t="s">
         <v>281</v>
       </c>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="H183" s="2"/>
     </row>
-    <row r="184" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="38" t="s">
         <v>24</v>
       </c>
@@ -6248,7 +6248,7 @@
       <c r="H184" s="37"/>
       <c r="I184" s="36"/>
     </row>
-    <row r="185" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="38" t="s">
         <v>25</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="H185" s="37"/>
       <c r="I185" s="36"/>
     </row>
-    <row r="186" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="38" t="s">
         <v>165</v>
       </c>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="H186" s="2"/>
     </row>
-    <row r="187" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="38" t="s">
         <v>335</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="H187" s="37"/>
       <c r="I187" s="36"/>
     </row>
-    <row r="188" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="38" t="s">
         <v>252</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="38" t="s">
         <v>334</v>
       </c>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="H189" s="2"/>
     </row>
-    <row r="190" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="38" t="s">
         <v>289</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="38" t="s">
         <v>258</v>
       </c>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="H192" s="2"/>
     </row>
-    <row r="193" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="38" t="s">
         <v>372</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="24" t="s">
         <v>358</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="38" t="s">
         <v>276</v>
       </c>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="38" t="s">
         <v>29</v>
       </c>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="I196" s="36"/>
     </row>
-    <row r="197" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="38" t="s">
         <v>30</v>
       </c>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="I197" s="36"/>
     </row>
-    <row r="198" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="38" t="s">
         <v>14</v>
       </c>
@@ -6540,7 +6540,7 @@
       <c r="H198" s="37"/>
       <c r="I198" s="36"/>
     </row>
-    <row r="199" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="38" t="s">
         <v>241</v>
       </c>
@@ -6559,7 +6559,7 @@
       </c>
       <c r="H199" s="2"/>
     </row>
-    <row r="200" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="38" t="s">
         <v>238</v>
       </c>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="38" t="s">
         <v>256</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="23" t="s">
         <v>162</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="38" t="s">
         <v>291</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="38" t="s">
         <v>83</v>
       </c>
@@ -6666,7 +6666,7 @@
       <c r="H204" s="37"/>
       <c r="I204" s="36"/>
     </row>
-    <row r="205" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="38" t="s">
         <v>254</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="38" t="s">
         <v>279</v>
       </c>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="H206" s="2"/>
     </row>
-    <row r="207" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="38" t="s">
         <v>255</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="38" t="s">
         <v>253</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="209" spans="1:16" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="38" t="s">
         <v>292</v>
       </c>
@@ -6772,7 +6772,7 @@
       <c r="I209" s="35"/>
       <c r="J209" s="35"/>
     </row>
-    <row r="210" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="38" t="s">
         <v>306</v>
       </c>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="H210" s="2"/>
     </row>
-    <row r="211" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="38" t="s">
         <v>293</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="212" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="24" t="s">
         <v>360</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="213" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="38" t="s">
         <v>310</v>
       </c>
@@ -6856,7 +6856,7 @@
       </c>
       <c r="H213" s="2"/>
     </row>
-    <row r="214" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="38" t="s">
         <v>239</v>
       </c>
@@ -6875,7 +6875,7 @@
       </c>
       <c r="H214" s="2"/>
     </row>
-    <row r="215" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="38" t="s">
         <v>40</v>
       </c>
@@ -6896,7 +6896,7 @@
       <c r="H215" s="37"/>
       <c r="I215" s="36"/>
     </row>
-    <row r="216" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="38" t="s">
         <v>42</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="38" t="s">
         <v>280</v>
       </c>
@@ -6947,7 +6947,7 @@
       <c r="O217" s="35"/>
       <c r="P217" s="35"/>
     </row>
-    <row r="218" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="38" t="s">
         <v>378</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="219" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="38" t="s">
         <v>243</v>
       </c>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="H219" s="2"/>
     </row>
-    <row r="220" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="38" t="s">
         <v>307</v>
       </c>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="H220" s="2"/>
     </row>
-    <row r="221" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="38" t="s">
         <v>367</v>
       </c>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="38" t="s">
         <v>288</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="223" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="38" t="s">
         <v>277</v>
       </c>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="38" t="s">
         <v>17</v>
       </c>
@@ -7085,7 +7085,7 @@
       <c r="H224" s="37"/>
       <c r="I224" s="36"/>
     </row>
-    <row r="225" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="38" t="s">
         <v>262</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="226" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="38" t="s">
         <v>260</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="227" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="38" t="s">
         <v>263</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="228" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="38" t="s">
         <v>261</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="229" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="38" t="s">
         <v>259</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="230" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="38" t="s">
         <v>336</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="231" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="38" t="s">
         <v>178</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="232" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="38" t="s">
         <v>180</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="233" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="38" t="s">
         <v>181</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="234" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="38" t="s">
         <v>171</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="235" spans="1:10" s="29" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="38" t="s">
         <v>173</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="I235" s="35"/>
       <c r="J235" s="35"/>
     </row>
-    <row r="236" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="38" t="s">
         <v>177</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="237" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="38" t="s">
         <v>172</v>
       </c>
@@ -7361,7 +7361,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="238" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="38" t="s">
         <v>182</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="239" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="38" t="s">
         <v>174</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="240" spans="1:10" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="38" t="s">
         <v>179</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="241" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="38" t="s">
         <v>185</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="242" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="38" t="s">
         <v>175</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="243" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="38" t="s">
         <v>186</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="244" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="38" t="s">
         <v>52</v>
       </c>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="H244" s="2"/>
     </row>
-    <row r="245" spans="1:16" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="38" t="s">
         <v>176</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="O245" s="36"/>
       <c r="P245" s="36"/>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="40" t="s">
         <v>387</v>
       </c>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="I246" s="36"/>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="40" t="s">
         <v>223</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="40" t="s">
         <v>0</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="40" t="s">
         <v>2</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="40" t="s">
         <v>6</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="40" t="s">
         <v>7</v>
       </c>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="H251" s="37"/>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="40" t="s">
         <v>8</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="40" t="s">
         <v>9</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="40" t="s">
         <v>10</v>
       </c>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="H254" s="37"/>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="40" t="s">
         <v>207</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="40" t="s">
         <v>400</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="40" t="s">
         <v>401</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="40" t="s">
         <v>402</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="40" t="s">
         <v>403</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="40" t="s">
         <v>404</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="40" t="s">
         <v>406</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="40" t="s">
         <v>58</v>
       </c>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="H262" s="37"/>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="40" t="s">
         <v>407</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="40" t="s">
         <v>408</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="40" t="s">
         <v>409</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="40" t="s">
         <v>232</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="40" t="s">
         <v>235</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="40" t="s">
         <v>11</v>
       </c>
@@ -7981,18 +7981,7 @@
       <c r="I268" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P268" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Liquor Stores"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P268" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I245">
     <sortCondition ref="B2:B245"/>
     <sortCondition ref="A2:A245"/>
@@ -10487,6 +10476,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100164710BAB2FBC24A935DC42CD35AC137" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c93b65b1e60c011a2b7ebb6e950969e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd4ba1c2-e6b9-4205-9c63-b0aff2cf6d2d" xmlns:ns3="ed8cec3a-111e-4f75-bc78-2f1871a2a4a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8000d45caef7abecd76131d114d5e154" ns2:_="" ns3:_="">
     <xsd:import namespace="dd4ba1c2-e6b9-4205-9c63-b0aff2cf6d2d"/>
@@ -10691,22 +10689,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2170F134-2FB8-499A-8663-27FE6304A81C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C70E43C7-8ACE-4FC5-972D-EF1C63AC2170}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10725,7 +10722,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EA0135-64DE-48FF-AE5F-FAA74C794965}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -10740,12 +10737,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2170F134-2FB8-499A-8663-27FE6304A81C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>